--- a/src/fst/morphology/incoming/stem_spreadsheets/prestem-allomorphs.xlsx
+++ b/src/fst/morphology/incoming/stem_spreadsheets/prestem-allomorphs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d57e051b42d5e2c/PostDoc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\katie\lang-bla\src\fst\morphology\incoming\stem_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2842" documentId="8_{CDF16176-9A36-47DA-AD2A-FFFCF232775E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88197474-7DAB-491D-910B-3013309C7AD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FDA313-0E6E-4672-A3E8-B7B9413F30EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{970177AD-0508-4146-8104-696C4F0D0384}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="1164">
   <si>
     <t>ohko</t>
   </si>
@@ -3596,10 +3596,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3919,10 +3915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399D63C0-1167-4190-8624-FB95238B6285}">
-  <dimension ref="A1:J453"/>
+  <dimension ref="A1:J452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A304" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A312" sqref="A312:XFD312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -12513,11 +12509,11 @@
         <v>PS/o'kia'p+:o'kia'p	PSBOUND2 ;</v>
       </c>
       <c r="I287" s="1" t="str">
-        <f t="shared" ref="I287:I318" si="37">_xlfn.CONCAT(A287,"+:",C287,CHAR(9),E287," ;")</f>
+        <f t="shared" ref="I287:I317" si="37">_xlfn.CONCAT(A287,"+:",C287,CHAR(9),E287," ;")</f>
         <v>PS/o'kia'p+:o'kia'p	PSBOUND2 ;</v>
       </c>
       <c r="J287" s="1" t="str">
-        <f t="shared" ref="J287:J318" si="38">_xlfn.CONCAT(A287,"+:",D287,CHAR(9),E287," ;")</f>
+        <f t="shared" ref="J287:J317" si="38">_xlfn.CONCAT(A287,"+:",D287,CHAR(9),E287," ;")</f>
         <v>PS/o'kia'p+:o'kia'p	PSBOUND2 ;</v>
       </c>
     </row>
@@ -13282,79 +13278,79 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>112</v>
+        <v>571</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F312" s="2"/>
+      <c r="G312" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H312" s="1" t="str">
-        <f t="shared" ref="H312:H375" si="39">_xlfn.CONCAT(A312,"+:",B312,CHAR(9),E312," ;")</f>
-        <v>PS/o't+:o't	PSBOUND2 ;</v>
+        <f t="shared" ref="H312:H374" si="39">_xlfn.CONCAT(A312,"+:",B312,CHAR(9),E312," ;")</f>
+        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
       </c>
       <c r="I312" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PS/o't+:o't	PSBOUND2 ;</v>
+        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
       </c>
       <c r="J312" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>PS/o't+:o't	PSBOUND2 ;</v>
+        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>571</v>
+        <v>511</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F313" s="2"/>
-      <c r="G313" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
+        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
       </c>
       <c r="I313" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
+        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
       </c>
       <c r="J313" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>PS/otahko+:otahko	PSBOUND2 ;</v>
+        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>511</v>
+        <v>63</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>238</v>
@@ -13362,15 +13358,15 @@
       <c r="F314" s="2"/>
       <c r="H314" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
+        <v>PS/otam+:otam	PSBOUND2 ;</v>
       </c>
       <c r="I314" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
+        <v>PS/otam+:otam	PSBOUND2 ;</v>
       </c>
       <c r="J314" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>PS/o'tak+:o'tak	PSBOUND2 ;</v>
+        <v>PS/otam+:otam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -13390,6 +13386,9 @@
         <v>238</v>
       </c>
       <c r="F315" s="2"/>
+      <c r="G315" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="39"/>
         <v>PS/otam+:otam	PSBOUND2 ;</v>
@@ -13405,79 +13404,79 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>63</v>
+        <v>513</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>64</v>
+        <v>514</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>64</v>
+        <v>514</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>64</v>
+        <v>514</v>
       </c>
       <c r="E316" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F316" s="2"/>
-      <c r="G316" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otam+:otam	PSBOUND2 ;</v>
+        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
       </c>
       <c r="I316" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PS/otam+:otam	PSBOUND2 ;</v>
+        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
       </c>
       <c r="J316" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>PS/otam+:otam	PSBOUND2 ;</v>
+        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>513</v>
+        <v>1028</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>514</v>
+        <v>1038</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>514</v>
+        <v>1038</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>514</v>
+        <v>1038</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F317" s="2"/>
+      <c r="G317" s="1" t="s">
+        <v>574</v>
+      </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
+        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
       </c>
       <c r="I317" s="1" t="str">
         <f t="shared" si="37"/>
-        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
+        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
       </c>
       <c r="J317" s="1" t="str">
         <f t="shared" si="38"/>
-        <v>PS/o'tam+:o'tam	PSBOUND2 ;</v>
+        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>1028</v>
+        <v>572</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>1038</v>
+        <v>573</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>1038</v>
+        <v>573</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>1038</v>
+        <v>573</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>238</v>
@@ -13488,191 +13487,188 @@
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
+        <v>PS/otats+:otats	PSBOUND2 ;</v>
       </c>
       <c r="I318" s="1" t="str">
-        <f t="shared" si="37"/>
-        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
+        <f t="shared" ref="I318:I352" si="40">_xlfn.CONCAT(A318,"+:",C318,CHAR(9),E318," ;")</f>
+        <v>PS/otats+:otats	PSBOUND2 ;</v>
       </c>
       <c r="J318" s="1" t="str">
-        <f t="shared" si="38"/>
-        <v>PS/o'tap+:o'tap	PSBOUND2 ;</v>
+        <f t="shared" ref="J318:J352" si="41">_xlfn.CONCAT(A318,"+:",D318,CHAR(9),E318," ;")</f>
+        <v>PS/otats+:otats	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>572</v>
+        <v>1064</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>573</v>
+        <v>1073</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>573</v>
+        <v>1073</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>573</v>
+        <v>1073</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="1" t="s">
-        <v>574</v>
+        <v>389</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otats+:otats	PSBOUND2 ;</v>
+        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
       </c>
       <c r="I319" s="1" t="str">
-        <f t="shared" ref="I319:I353" si="40">_xlfn.CONCAT(A319,"+:",C319,CHAR(9),E319," ;")</f>
-        <v>PS/otats+:otats	PSBOUND2 ;</v>
+        <f t="shared" si="40"/>
+        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
       </c>
       <c r="J319" s="1" t="str">
-        <f t="shared" ref="J319:J353" si="41">_xlfn.CONCAT(A319,"+:",D319,CHAR(9),E319," ;")</f>
-        <v>PS/otats+:otats	PSBOUND2 ;</v>
+        <f t="shared" si="41"/>
+        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>1064</v>
+        <v>515</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>1073</v>
+        <v>516</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>1073</v>
+        <v>516</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>1073</v>
+        <v>516</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="1" t="s">
-        <v>389</v>
+        <v>517</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
+        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
       </c>
       <c r="I320" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
+        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
       </c>
       <c r="J320" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/otomohk+:otomohk	PSBOUND2 ;</v>
+        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F321" s="2"/>
-      <c r="G321" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
+        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
       </c>
       <c r="I321" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
+        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
       </c>
       <c r="J321" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/o'topi+:o'topi	PSBOUND2 ;</v>
+        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E322" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F322" s="2"/>
+      <c r="G322" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
+        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
       </c>
       <c r="I322" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
+        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
       </c>
       <c r="J322" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/o'totam+:o'totam	PSBOUND2 ;</v>
+        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="E323" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F323" s="2"/>
-      <c r="G323" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="H323" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
+        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
       </c>
       <c r="I323" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
+        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
       </c>
       <c r="J323" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/o'tsat+:o'tsat	PSBOUND2 ;</v>
+        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>238</v>
@@ -13680,29 +13676,29 @@
       <c r="F324" s="2"/>
       <c r="H324" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
+        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
       </c>
       <c r="I324" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
+        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
       </c>
       <c r="J324" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/otsik+:otsik	PSBOUND2 ;</v>
+        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>577</v>
+        <v>526</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>578</v>
+        <v>527</v>
       </c>
       <c r="E325" s="2" t="s">
         <v>238</v>
@@ -13710,92 +13706,95 @@
       <c r="F325" s="2"/>
       <c r="H325" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
+        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
       </c>
       <c r="I325" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
+        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
       </c>
       <c r="J325" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/otsistap+:otsistap	PSBOUND2 ;</v>
+        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E326" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F326" s="2"/>
+      <c r="G326" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
+        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
       </c>
       <c r="I326" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
+        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
       </c>
       <c r="J326" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/o'tsitsk+:o'tsitsk	PSBOUND2 ;</v>
+        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>521</v>
+        <v>730</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>525</v>
+        <v>732</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>525</v>
+        <v>732</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>525</v>
+        <v>732</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>523</v>
+        <v>260</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
+        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
       </c>
       <c r="I327" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
+        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
       </c>
       <c r="J327" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/o'tssat+:o'tssat	PSBOUND2 ;</v>
+        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>730</v>
+        <v>579</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>732</v>
+        <v>580</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>732</v>
+        <v>580</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>732</v>
+        <v>580</v>
       </c>
       <c r="E328" s="2" t="s">
         <v>238</v>
@@ -13806,224 +13805,221 @@
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
+        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
       </c>
       <c r="I328" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
+        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
       </c>
       <c r="J328" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/ótssko+:ótssko	PSBOUND2 ;</v>
+        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>579</v>
+        <v>339</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>580</v>
+        <v>340</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>580</v>
+        <v>341</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>580</v>
+        <v>341</v>
       </c>
       <c r="E329" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F329" s="2"/>
-      <c r="G329" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
+        <v>PS/paahk+:paahk	PSBOUND2 ;</v>
       </c>
       <c r="I329" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
+        <v>PS/paahk+:i2pahk	PSBOUND2 ;</v>
       </c>
       <c r="J329" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/ottapit+:ottapit	PSBOUND2 ;</v>
+        <v>PS/paahk+:i2pahk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>339</v>
+        <v>584</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>340</v>
+        <v>585</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>341</v>
+        <v>586</v>
       </c>
       <c r="E330" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F330" s="2"/>
+      <c r="G330" s="1" t="s">
+        <v>583</v>
+      </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/paahk+:paahk	PSBOUND2 ;</v>
+        <v>PS/paahksíst+:paahksíst	PSBOUND2 ;</v>
       </c>
       <c r="I330" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/paahk+:i2pahk	PSBOUND2 ;</v>
+        <v>PS/paahksíst+:ipahksíst	PSBOUND2 ;</v>
       </c>
       <c r="J330" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/paahk+:i2pahk	PSBOUND2 ;</v>
+        <v>PS/paahksíst+:ipahksíst	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>584</v>
+        <v>348</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>585</v>
+        <v>349</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>586</v>
+        <v>350</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="1" t="s">
-        <v>583</v>
+        <v>362</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/paahksíst+:paahksíst	PSBOUND2 ;</v>
+        <v>PS/paaht+:paaht	PSBOUND2 ;</v>
       </c>
       <c r="I331" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/paahksíst+:ipahksíst	PSBOUND2 ;</v>
+        <v>PS/paaht+:ipaht	PSBOUND2 ;</v>
       </c>
       <c r="J331" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/paahksíst+:ipahksíst	PSBOUND2 ;</v>
+        <v>PS/paaht+:ipaht	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>348</v>
+        <v>581</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>349</v>
+        <v>582</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>350</v>
+        <v>1155</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>350</v>
+        <v>1155</v>
       </c>
       <c r="E332" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="1" t="s">
-        <v>362</v>
+        <v>1156</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/paaht+:paaht	PSBOUND2 ;</v>
+        <v>PS/pa'ksik+:pa'ksik	PSBOUND2 ;</v>
       </c>
       <c r="I332" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/paaht+:ipaht	PSBOUND2 ;</v>
+        <v>PS/pa'ksik+:i2pa'ksik	PSBOUND2 ;</v>
       </c>
       <c r="J332" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/paaht+:ipaht	PSBOUND2 ;</v>
+        <v>PS/pa'ksik+:i2pa'ksik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>581</v>
+        <v>146</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>582</v>
+        <v>147</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>1155</v>
+        <v>232</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>1155</v>
+        <v>148</v>
       </c>
       <c r="E333" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
-        <v>1156</v>
+        <v>149</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/pa'ksik+:pa'ksik	PSBOUND2 ;</v>
+        <v>PS/piitsiyoohk+:piitsiyoohk	PSBOUND2 ;</v>
       </c>
       <c r="I333" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/pa'ksik+:i2pa'ksik	PSBOUND2 ;</v>
+        <v>PS/piitsiyoohk+:%^SPi2piitsiyoohk	PSBOUND2 ;</v>
       </c>
       <c r="J333" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/pa'ksik+:i2pa'ksik	PSBOUND2 ;</v>
+        <v>PS/piitsiyoohk+:i2piitsiyoohk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>146</v>
+        <v>587</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="E334" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F334" s="2"/>
-      <c r="G334" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/piitsiyoohk+:piitsiyoohk	PSBOUND2 ;</v>
+        <v>PS/pi'k+:pi'k	PSBOUND2 ;</v>
       </c>
       <c r="I334" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/piitsiyoohk+:%^SPi2piitsiyoohk	PSBOUND2 ;</v>
+        <v>PS/pi'k+:i2pi'k	PSBOUND2 ;</v>
       </c>
       <c r="J334" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/piitsiyoohk+:i2piitsiyoohk	PSBOUND2 ;</v>
+        <v>PS/pi'k+:i2pi'k	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>587</v>
+        <v>330</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="E335" s="2" t="s">
         <v>238</v>
@@ -14031,29 +14027,29 @@
       <c r="F335" s="2"/>
       <c r="H335" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/pi'k+:pi'k	PSBOUND2 ;</v>
+        <v>PS/pinááp+:pinááp	PSBOUND2 ;</v>
       </c>
       <c r="I335" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/pi'k+:i2pi'k	PSBOUND2 ;</v>
+        <v>PS/pinááp+:i2nnaap	PSBOUND2 ;</v>
       </c>
       <c r="J335" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/pi'k+:i2pi'k	PSBOUND2 ;</v>
+        <v>PS/pinááp+:i2nnaap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="E336" s="2" t="s">
         <v>238</v>
@@ -14061,29 +14057,29 @@
       <c r="F336" s="2"/>
       <c r="H336" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/pinááp+:pinááp	PSBOUND2 ;</v>
+        <v>PS/pisát+:pisát	PSBOUND2 ;</v>
       </c>
       <c r="I336" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/pinááp+:i2nnaap	PSBOUND2 ;</v>
+        <v>PS/pisát+:i2pisat	PSBOUND2 ;</v>
       </c>
       <c r="J336" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/pinááp+:i2nnaap	PSBOUND2 ;</v>
+        <v>PS/pisát+:i2pisat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>357</v>
+        <v>896</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>358</v>
+        <v>897</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>359</v>
+        <v>895</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>359</v>
+        <v>895</v>
       </c>
       <c r="E337" s="2" t="s">
         <v>238</v>
@@ -14091,155 +14087,155 @@
       <c r="F337" s="2"/>
       <c r="H337" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/pisát+:pisát	PSBOUND2 ;</v>
+        <v>PS/póína+:póína	PSBOUND2 ;</v>
       </c>
       <c r="I337" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/pisát+:i2pisat	PSBOUND2 ;</v>
+        <v>PS/póína+:i2poina	PSBOUND2 ;</v>
       </c>
       <c r="J337" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/pisát+:i2pisat	PSBOUND2 ;</v>
+        <v>PS/póína+:i2poina	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>896</v>
+        <v>87</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>897</v>
+        <v>88</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>895</v>
+        <v>89</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>895</v>
+        <v>90</v>
       </c>
       <c r="E338" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F338" s="2"/>
+      <c r="G338" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/póína+:póína	PSBOUND2 ;</v>
+        <v>PS/poohsap+:poohsap	PSBOUND2 ;</v>
       </c>
       <c r="I338" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/póína+:i2poina	PSBOUND2 ;</v>
+        <v>PS/poohsap+:ipoohsap	PSBOUND2 ;</v>
       </c>
       <c r="J338" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/póína+:i2poina	PSBOUND2 ;</v>
+        <v>PS/poohsap+:i2poohsap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F339" s="2"/>
-      <c r="G339" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/poohsap+:poohsap	PSBOUND2 ;</v>
+        <v>PS/sa+:sa	PSBOUND2 ;</v>
       </c>
       <c r="I339" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/poohsap+:ipoohsap	PSBOUND2 ;</v>
+        <v>PS/sa+:sa	PSBOUND2 ;</v>
       </c>
       <c r="J339" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/poohsap+:i2poohsap	PSBOUND2 ;</v>
+        <v>PS/sa+:sa	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>114</v>
+        <v>598</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>115</v>
+        <v>599</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>115</v>
+        <v>600</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>115</v>
+        <v>600</v>
       </c>
       <c r="E340" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F340" s="2"/>
+      <c r="G340" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sa+:sa	PSBOUND2 ;</v>
+        <v>PS/saahk+:saahk	PSBOUND2 ;</v>
       </c>
       <c r="I340" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/sa+:sa	PSBOUND2 ;</v>
+        <v>PS/saahk+:sahk	PSBOUND2 ;</v>
       </c>
       <c r="J340" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/sa+:sa	PSBOUND2 ;</v>
+        <v>PS/saahk+:sahk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>598</v>
+        <v>1065</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>599</v>
+        <v>1074</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>600</v>
+        <v>1074</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>600</v>
+        <v>1074</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F341" s="2"/>
-      <c r="G341" s="1" t="s">
-        <v>505</v>
-      </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saahk+:saahk	PSBOUND2 ;</v>
+        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
       </c>
       <c r="I341" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saahk+:sahk	PSBOUND2 ;</v>
+        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
       </c>
       <c r="J341" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saahk+:sahk	PSBOUND2 ;</v>
+        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="E342" s="2" t="s">
         <v>238</v>
@@ -14247,155 +14243,155 @@
       <c r="F342" s="2"/>
       <c r="H342" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
+        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
       </c>
       <c r="I342" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
+        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
       </c>
       <c r="J342" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saaki+:saaki	PSBOUND2 ;</v>
+        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>1066</v>
+        <v>601</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>1075</v>
+        <v>602</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>1075</v>
+        <v>602</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>1075</v>
+        <v>602</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F343" s="2"/>
+      <c r="G343" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
+        <v>PS/saat+:saat	PSBOUND2 ;</v>
       </c>
       <c r="I343" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
+        <v>PS/saat+:saat	PSBOUND2 ;</v>
       </c>
       <c r="J343" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saapo'kit+:saapo'kit	PSBOUND2 ;</v>
+        <v>PS/saat+:saat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E344" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F344" s="2"/>
-      <c r="G344" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saat+:saat	PSBOUND2 ;</v>
+        <v>PS/saayíppom+:saayíppom	PSBOUND2 ;</v>
       </c>
       <c r="I344" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saat+:saat	PSBOUND2 ;</v>
+        <v>PS/saayíppom+:sayíppom	PSBOUND2 ;</v>
       </c>
       <c r="J344" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saat+:saat	PSBOUND2 ;</v>
+        <v>PS/saayíppom+:sayíppom	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F345" s="2"/>
+      <c r="G345" s="1" t="s">
+        <v>608</v>
+      </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saayíppom+:saayíppom	PSBOUND2 ;</v>
+        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
       </c>
       <c r="I345" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saayíppom+:sayíppom	PSBOUND2 ;</v>
+        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
       </c>
       <c r="J345" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saayíppom+:sayíppom	PSBOUND2 ;</v>
+        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="E346" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F346" s="2"/>
-      <c r="G346" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
+        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
       </c>
       <c r="I346" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
+        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
       </c>
       <c r="J346" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/sahp+:sahp	PSBOUND2 ;</v>
+        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E347" s="2" t="s">
         <v>238</v>
@@ -14403,174 +14399,174 @@
       <c r="F347" s="2"/>
       <c r="H347" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
+        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
       </c>
       <c r="I347" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
+        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
       </c>
       <c r="J347" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saikima'+:saikima'	PSBOUND2 ;</v>
+        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F348" s="2"/>
+      <c r="G348" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
+        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
       </c>
       <c r="I348" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
+        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
       </c>
       <c r="J348" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saiksistt+:saiksistt	PSBOUND2 ;</v>
+        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E349" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="1" t="s">
-        <v>260</v>
+        <v>389</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
+        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
       </c>
       <c r="I349" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
+        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
       </c>
       <c r="J349" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/sainnis+:sainnis	PSBOUND2 ;</v>
+        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F350" s="2"/>
-      <c r="G350" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
+        <v>PS/saip+:saip	PSBOUND2 ;</v>
       </c>
       <c r="I350" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
+        <v>PS/saip+:saip	PSBOUND2 ;</v>
       </c>
       <c r="J350" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/sainskaka'p+:sainskaka'p	PSBOUND2 ;</v>
+        <v>PS/saip+:saip	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>617</v>
+        <v>1067</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>618</v>
+        <v>1076</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>618</v>
+        <v>1076</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>618</v>
+        <v>1076</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F351" s="2"/>
+      <c r="G351" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saip+:saip	PSBOUND2 ;</v>
+        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
       </c>
       <c r="I351" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saip+:saip	PSBOUND2 ;</v>
+        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
       </c>
       <c r="J351" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saip+:saip	PSBOUND2 ;</v>
+        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>1067</v>
+        <v>619</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>1076</v>
+        <v>620</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1076</v>
+        <v>620</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>1076</v>
+        <v>620</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F352" s="2"/>
-      <c r="G352" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
+        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
       </c>
       <c r="I352" s="1" t="str">
         <f t="shared" si="40"/>
-        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
+        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
       </c>
       <c r="J352" s="1" t="str">
         <f t="shared" si="41"/>
-        <v>PS/saipa'+:saipa'	PSBOUND2 ;</v>
+        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -14578,13 +14574,7 @@
         <v>619</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>238</v>
@@ -14592,78 +14582,84 @@
       <c r="F353" s="2"/>
       <c r="H353" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
-      </c>
-      <c r="I353" s="1" t="str">
-        <f t="shared" si="40"/>
-        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
-      </c>
-      <c r="J353" s="1" t="str">
-        <f t="shared" si="41"/>
-        <v>PS/sakak+:sakak	PSBOUND2 ;</v>
+        <v>PS/sakak+:isakak	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>621</v>
+        <v>590</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>590</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F354" s="2"/>
+      <c r="G354" s="1" t="s">
+        <v>597</v>
+      </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sakak+:isakak	PSBOUND2 ;</v>
+        <v>PS/sa'kap+:%^ICsa'kap	PSBOUND2 ;</v>
+      </c>
+      <c r="I354" s="1" t="str">
+        <f>_xlfn.CONCAT(A354,"+:",C354,CHAR(9),E354," ;")</f>
+        <v>PS/sa'kap+:sa'kap	PSBOUND2 ;</v>
+      </c>
+      <c r="J354" s="1" t="str">
+        <f>_xlfn.CONCAT(A354,"+:",D354,CHAR(9),E354," ;")</f>
+        <v>PS/sa'kap+:%^ICsa'kap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>588</v>
+        <v>376</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>590</v>
+        <v>377</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>589</v>
+        <v>377</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>590</v>
+        <v>377</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F355" s="2"/>
-      <c r="G355" s="1" t="s">
-        <v>597</v>
-      </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sa'kap+:%^ICsa'kap	PSBOUND2 ;</v>
+        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
       </c>
       <c r="I355" s="1" t="str">
         <f>_xlfn.CONCAT(A355,"+:",C355,CHAR(9),E355," ;")</f>
-        <v>PS/sa'kap+:sa'kap	PSBOUND2 ;</v>
+        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
       </c>
       <c r="J355" s="1" t="str">
         <f>_xlfn.CONCAT(A355,"+:",D355,CHAR(9),E355," ;")</f>
-        <v>PS/sa'kap+:%^ICsa'kap	PSBOUND2 ;</v>
+        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>376</v>
+        <v>622</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>377</v>
+        <v>623</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>377</v>
+        <v>623</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>377</v>
+        <v>623</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>238</v>
@@ -14671,45 +14667,48 @@
       <c r="F356" s="2"/>
       <c r="H356" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
+        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
       </c>
       <c r="I356" s="1" t="str">
         <f>_xlfn.CONCAT(A356,"+:",C356,CHAR(9),E356," ;")</f>
-        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
+        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
       </c>
       <c r="J356" s="1" t="str">
         <f>_xlfn.CONCAT(A356,"+:",D356,CHAR(9),E356," ;")</f>
-        <v>PS/sako(w/y)+:sakoG	PSBOUND2 ;</v>
+        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>622</v>
+        <v>1097</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>623</v>
+        <v>1105</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>623</v>
+        <v>1104</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>623</v>
+        <v>1104</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F357" s="2"/>
+      <c r="G357" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
+        <v>PS/sáótat+:isáótat	PSBOUND2 ;</v>
       </c>
       <c r="I357" s="1" t="str">
         <f>_xlfn.CONCAT(A357,"+:",C357,CHAR(9),E357," ;")</f>
-        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
+        <v>PS/sáótat+:sáótat	PSBOUND2 ;</v>
       </c>
       <c r="J357" s="1" t="str">
         <f>_xlfn.CONCAT(A357,"+:",D357,CHAR(9),E357," ;")</f>
-        <v>PS/saoki+:saoki	PSBOUND2 ;</v>
+        <v>PS/sáótat+:sáótat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -14717,191 +14716,188 @@
         <v>1097</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C358" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>1104</v>
-      </c>
       <c r="E358" s="2" t="s">
-        <v>238</v>
+        <v>907</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>781</v>
+        <v>1089</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sáótat+:isáótat	PSBOUND2 ;</v>
-      </c>
-      <c r="I358" s="1" t="str">
-        <f>_xlfn.CONCAT(A358,"+:",C358,CHAR(9),E358," ;")</f>
-        <v>PS/sáótat+:sáótat	PSBOUND2 ;</v>
-      </c>
-      <c r="J358" s="1" t="str">
-        <f>_xlfn.CONCAT(A358,"+:",D358,CHAR(9),E358," ;")</f>
-        <v>PS/sáótat+:sáótat	PSBOUND2 ;</v>
+        <v>PS/sáótat+:sáótat	PSBOUND3 ;</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>1097</v>
+        <v>379</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>1104</v>
+        <v>380</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>907</v>
+        <v>238</v>
       </c>
       <c r="F359" s="2"/>
-      <c r="G359" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sáótat+:sáótat	PSBOUND3 ;</v>
+        <v>PS/sap+:sap	PSBOUND2 ;</v>
+      </c>
+      <c r="I359" s="1" t="str">
+        <f t="shared" ref="I359:I387" si="42">_xlfn.CONCAT(A359,"+:",C359,CHAR(9),E359," ;")</f>
+        <v>PS/sap+:sap	PSBOUND2 ;</v>
+      </c>
+      <c r="J359" s="1" t="str">
+        <f t="shared" ref="J359:J387" si="43">_xlfn.CONCAT(A359,"+:",D359,CHAR(9),E359," ;")</f>
+        <v>PS/sap+:sap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>379</v>
+        <v>624</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>380</v>
+        <v>625</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>380</v>
+        <v>625</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>380</v>
+        <v>625</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F360" s="2"/>
+      <c r="G360" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sap+:sap	PSBOUND2 ;</v>
+        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
       </c>
       <c r="I360" s="1" t="str">
-        <f t="shared" ref="I360:I388" si="42">_xlfn.CONCAT(A360,"+:",C360,CHAR(9),E360," ;")</f>
-        <v>PS/sap+:sap	PSBOUND2 ;</v>
+        <f t="shared" si="42"/>
+        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
       </c>
       <c r="J360" s="1" t="str">
-        <f t="shared" ref="J360:J388" si="43">_xlfn.CONCAT(A360,"+:",D360,CHAR(9),E360," ;")</f>
-        <v>PS/sap+:sap	PSBOUND2 ;</v>
+        <f t="shared" si="43"/>
+        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F361" s="2"/>
-      <c r="G361" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
+        <v>PS/sata+:sata	PSBOUND2 ;</v>
       </c>
       <c r="I361" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
+        <v>PS/sata+:sata	PSBOUND2 ;</v>
       </c>
       <c r="J361" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sapa'kot+:sapa'kot	PSBOUND2 ;</v>
+        <v>PS/sata+:sata	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F362" s="2"/>
+      <c r="G362" s="1" t="s">
+        <v>630</v>
+      </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sata+:sata	PSBOUND2 ;</v>
+        <v>PS/satt+:%^ICsatt	PSBOUND2 ;</v>
       </c>
       <c r="I362" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sata+:sata	PSBOUND2 ;</v>
+        <v>PS/satt+:satt	PSBOUND2 ;</v>
       </c>
       <c r="J362" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sata+:sata	PSBOUND2 ;</v>
+        <v>PS/satt+:%^ICsatt	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E363" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F363" s="2"/>
-      <c r="G363" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/satt+:%^ICsatt	PSBOUND2 ;</v>
+        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
       </c>
       <c r="I363" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/satt+:satt	PSBOUND2 ;</v>
+        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
       </c>
       <c r="J363" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/satt+:%^ICsatt	PSBOUND2 ;</v>
+        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>238</v>
@@ -14909,29 +14905,29 @@
       <c r="F364" s="2"/>
       <c r="H364" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
+        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
       </c>
       <c r="I364" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
+        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
       </c>
       <c r="J364" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sawommit+:sawommit	PSBOUND2 ;</v>
+        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>634</v>
+        <v>164</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>635</v>
+        <v>165</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>635</v>
+        <v>165</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>635</v>
+        <v>165</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>238</v>
@@ -14939,29 +14935,29 @@
       <c r="F365" s="2"/>
       <c r="H365" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
+        <v>PS/sik+:sik	PSBOUND2 ;</v>
       </c>
       <c r="I365" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
+        <v>PS/sik+:sik	PSBOUND2 ;</v>
       </c>
       <c r="J365" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sawotsistap+:sawotsistap	PSBOUND2 ;</v>
+        <v>PS/sik+:sik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>164</v>
+        <v>636</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>165</v>
+        <v>637</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>165</v>
+        <v>637</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>165</v>
+        <v>637</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>238</v>
@@ -14969,29 +14965,29 @@
       <c r="F366" s="2"/>
       <c r="H366" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sik+:sik	PSBOUND2 ;</v>
+        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
       </c>
       <c r="I366" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sik+:sik	PSBOUND2 ;</v>
+        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
       </c>
       <c r="J366" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sik+:sik	PSBOUND2 ;</v>
+        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>238</v>
@@ -14999,29 +14995,29 @@
       <c r="F367" s="2"/>
       <c r="H367" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
+        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
       </c>
       <c r="I367" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
+        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
       </c>
       <c r="J367" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/si'k+:si'k	PSBOUND2 ;</v>
+        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>238</v>
@@ -15029,29 +15025,29 @@
       <c r="F368" s="2"/>
       <c r="H368" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
+        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
       </c>
       <c r="I368" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
+        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
       </c>
       <c r="J368" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sikaapi+:sikaapi	PSBOUND2 ;</v>
+        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>640</v>
+        <v>126</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>644</v>
+        <v>127</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>644</v>
+        <v>127</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>644</v>
+        <v>127</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>238</v>
@@ -15059,29 +15055,29 @@
       <c r="F369" s="2"/>
       <c r="H369" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
+        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
       </c>
       <c r="I369" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
+        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
       </c>
       <c r="J369" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sikim+:sikim	PSBOUND2 ;</v>
+        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>126</v>
+        <v>1068</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>127</v>
+        <v>1077</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>127</v>
+        <v>1077</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>127</v>
+        <v>1077</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>238</v>
@@ -15089,29 +15085,29 @@
       <c r="F370" s="2"/>
       <c r="H370" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
+        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
       </c>
       <c r="I370" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
+        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
       </c>
       <c r="J370" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sikotahko+:sikotahko	PSBOUND2 ;</v>
+        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>1068</v>
+        <v>642</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1077</v>
+        <v>646</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1077</v>
+        <v>646</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>1077</v>
+        <v>646</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>238</v>
@@ -15119,248 +15115,248 @@
       <c r="F371" s="2"/>
       <c r="H371" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
+        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
       </c>
       <c r="I371" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
+        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
       </c>
       <c r="J371" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sipi+:sipi	PSBOUND2 ;</v>
+        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F372" s="2"/>
+      <c r="G372" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H372" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
+        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
       </c>
       <c r="I372" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
+        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
       </c>
       <c r="J372" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sisákk+:sisákk	PSBOUND2 ;</v>
+        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>641</v>
+        <v>80</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>645</v>
+        <v>82</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>645</v>
+        <v>81</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F373" s="2"/>
-      <c r="G373" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="H373" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
+        <v>PS/sistsik+:sistsik	PSBOUND2 ;</v>
       </c>
       <c r="I373" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
+        <v>PS/sistsik+:sistsik	PSBOUND2 ;</v>
       </c>
       <c r="J373" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sisik+:sisik	PSBOUND2 ;</v>
+        <v>PS/sistsik+:i2sistsik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>82</v>
+        <v>647</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>81</v>
+        <v>647</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F374" s="2"/>
+      <c r="G374" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H374" s="1" t="str">
         <f t="shared" si="39"/>
-        <v>PS/sistsik+:sistsik	PSBOUND2 ;</v>
+        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
       </c>
       <c r="I374" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sistsik+:sistsik	PSBOUND2 ;</v>
+        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
       </c>
       <c r="J374" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sistsik+:i2sistsik	PSBOUND2 ;</v>
+        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F375" s="2"/>
-      <c r="G375" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H375" s="1" t="str">
-        <f t="shared" si="39"/>
-        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
+        <f t="shared" ref="H375:H438" si="44">_xlfn.CONCAT(A375,"+:",B375,CHAR(9),E375," ;")</f>
+        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
       </c>
       <c r="I375" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
+        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
       </c>
       <c r="J375" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sitok+:sitok	PSBOUND2 ;</v>
+        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F376" s="2"/>
       <c r="H376" s="1" t="str">
-        <f t="shared" ref="H376:H439" si="44">_xlfn.CONCAT(A376,"+:",B376,CHAR(9),E376," ;")</f>
-        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
+        <f t="shared" si="44"/>
+        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
       </c>
       <c r="I376" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
+        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
       </c>
       <c r="J376" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sitsip+:sitsip	PSBOUND2 ;</v>
+        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F377" s="2"/>
+      <c r="G377" s="1" t="s">
+        <v>531</v>
+      </c>
       <c r="H377" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
+        <v>PS/sok+:sok	PSBOUND2 ;</v>
       </c>
       <c r="I377" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
+        <v>PS/sok+:sok	PSBOUND2 ;</v>
       </c>
       <c r="J377" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/so(w/y)+:soG	PSBOUND2 ;</v>
+        <v>PS/sok+:sok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F378" s="2"/>
-      <c r="G378" s="1" t="s">
-        <v>531</v>
-      </c>
       <c r="H378" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sok+:sok	PSBOUND2 ;</v>
+        <v>PS/soohk+:soohk	PSBOUND2 ;</v>
       </c>
       <c r="I378" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sok+:sok	PSBOUND2 ;</v>
+        <v>PS/soohk+:sohk	PSBOUND2 ;</v>
       </c>
       <c r="J378" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sok+:sok	PSBOUND2 ;</v>
+        <v>PS/soohk+:sohk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>654</v>
+        <v>1069</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>655</v>
+        <v>1078</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>656</v>
+        <v>1078</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>656</v>
+        <v>1078</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>238</v>
@@ -15368,267 +15364,270 @@
       <c r="F379" s="2"/>
       <c r="H379" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/soohk+:soohk	PSBOUND2 ;</v>
+        <v>PS/sook+:sook	PSBOUND2 ;</v>
       </c>
       <c r="I379" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/soohk+:sohk	PSBOUND2 ;</v>
+        <v>PS/sook+:sook	PSBOUND2 ;</v>
       </c>
       <c r="J379" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/soohk+:sohk	PSBOUND2 ;</v>
+        <v>PS/sook+:sook	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F380" s="2"/>
+      <c r="G380" s="1" t="s">
+        <v>648</v>
+      </c>
       <c r="H380" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sook+:sook	PSBOUND2 ;</v>
+        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
       </c>
       <c r="I380" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sook+:sook	PSBOUND2 ;</v>
+        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
       </c>
       <c r="J380" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sook+:sook	PSBOUND2 ;</v>
+        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>1079</v>
+        <v>652</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>1085</v>
+        <v>659</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1085</v>
+        <v>659</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>1085</v>
+        <v>659</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F381" s="2"/>
-      <c r="G381" s="1" t="s">
-        <v>648</v>
-      </c>
       <c r="H381" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
+        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
       </c>
       <c r="I381" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
+        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
       </c>
       <c r="J381" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sootam+:sootam	PSBOUND2 ;</v>
+        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F382" s="2"/>
+      <c r="G382" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H382" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
+        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
       </c>
       <c r="I382" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
+        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
       </c>
       <c r="J382" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sopo(w/y)+:sopoG	PSBOUND2 ;</v>
+        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F383" s="2"/>
-      <c r="G383" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H383" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
+        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
       </c>
       <c r="I383" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
+        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
       </c>
       <c r="J383" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sopok+:sopok	PSBOUND2 ;</v>
+        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>660</v>
+        <v>55</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>661</v>
+        <v>56</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>661</v>
+        <v>56</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>661</v>
+        <v>56</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F384" s="2"/>
+      <c r="G384" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="H384" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
+        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
       </c>
       <c r="I384" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
+        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
       </c>
       <c r="J384" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sopoya'p+:sopoya'p	PSBOUND2 ;</v>
+        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>55</v>
+        <v>1083</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>56</v>
+        <v>1093</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>56</v>
+        <v>1093</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>56</v>
+        <v>1093</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>57</v>
+        <v>260</v>
       </c>
       <c r="H385" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
+        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
       </c>
       <c r="I385" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
+        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
       </c>
       <c r="J385" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/sotam+:sotam	PSBOUND2 ;</v>
+        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>1093</v>
+        <v>1102</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F386" s="2"/>
-      <c r="G386" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H386" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
+        <v>PS/ssáak+:issáak	PSBOUND2 ;</v>
       </c>
       <c r="I386" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
+        <v>PS/ssáak+:ssáak	PSBOUND2 ;</v>
       </c>
       <c r="J386" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/soyi+:soyi	PSBOUND2 ;</v>
+        <v>PS/ssáak+:ssáak	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>1096</v>
+        <v>1080</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>1102</v>
+        <v>1086</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F387" s="2"/>
+      <c r="G387" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="H387" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssáak+:issáak	PSBOUND2 ;</v>
+        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
       </c>
       <c r="I387" s="1" t="str">
         <f t="shared" si="42"/>
-        <v>PS/ssáak+:ssáak	PSBOUND2 ;</v>
+        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
       </c>
       <c r="J387" s="1" t="str">
         <f t="shared" si="43"/>
-        <v>PS/ssáak+:ssáak	PSBOUND2 ;</v>
+        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -15636,65 +15635,62 @@
         <v>1080</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D388" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>781</v>
+        <v>1089</v>
       </c>
       <c r="H388" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
-      </c>
-      <c r="I388" s="1" t="str">
-        <f t="shared" si="42"/>
-        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
-      </c>
-      <c r="J388" s="1" t="str">
-        <f t="shared" si="43"/>
-        <v>PS/ssap+:ssap	PSBOUND2 ;</v>
+        <v>PS/ssap+:issap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>1080</v>
+        <v>664</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1087</v>
+        <v>672</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>671</v>
       </c>
       <c r="E389" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F389" s="2"/>
-      <c r="G389" s="1" t="s">
-        <v>1089</v>
-      </c>
       <c r="H389" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssap+:issap	PSBOUND2 ;</v>
+        <v>PS/ssik+:issik	PSBOUND2 ;</v>
+      </c>
+      <c r="I389" s="1" t="str">
+        <f t="shared" ref="I389:I398" si="45">_xlfn.CONCAT(A389,"+:",C389,CHAR(9),E389," ;")</f>
+        <v>PS/ssik+:ssik	PSBOUND2 ;</v>
+      </c>
+      <c r="J389" s="1" t="str">
+        <f t="shared" ref="J389:J398" si="46">_xlfn.CONCAT(A389,"+:",D389,CHAR(9),E389," ;")</f>
+        <v>PS/ssik+:ssik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>664</v>
+        <v>47</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>672</v>
+        <v>48</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>671</v>
+        <v>49</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>671</v>
+        <v>49</v>
       </c>
       <c r="E390" s="2" t="s">
         <v>238</v>
@@ -15702,29 +15698,29 @@
       <c r="F390" s="2"/>
       <c r="H390" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssik+:issik	PSBOUND2 ;</v>
+        <v>PS/ssk+:issk	PSBOUND2 ;</v>
       </c>
       <c r="I390" s="1" t="str">
-        <f t="shared" ref="I390:I399" si="45">_xlfn.CONCAT(A390,"+:",C390,CHAR(9),E390," ;")</f>
-        <v>PS/ssik+:ssik	PSBOUND2 ;</v>
+        <f t="shared" si="45"/>
+        <v>PS/ssk+:ssk	PSBOUND2 ;</v>
       </c>
       <c r="J390" s="1" t="str">
-        <f t="shared" ref="J390:J399" si="46">_xlfn.CONCAT(A390,"+:",D390,CHAR(9),E390," ;")</f>
-        <v>PS/ssik+:ssik	PSBOUND2 ;</v>
+        <f t="shared" si="46"/>
+        <v>PS/ssk+:ssk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>47</v>
+        <v>915</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>48</v>
+        <v>926</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>49</v>
+        <v>927</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>49</v>
+        <v>927</v>
       </c>
       <c r="E391" s="2" t="s">
         <v>238</v>
@@ -15732,29 +15728,29 @@
       <c r="F391" s="2"/>
       <c r="H391" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssk+:issk	PSBOUND2 ;</v>
+        <v>PS/sska'+:isska'	PSBOUND2 ;</v>
       </c>
       <c r="I391" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/ssk+:ssk	PSBOUND2 ;</v>
+        <v>PS/sska'+:sska'	PSBOUND2 ;</v>
       </c>
       <c r="J391" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/ssk+:ssk	PSBOUND2 ;</v>
+        <v>PS/sska'+:sska'	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>915</v>
+        <v>665</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>926</v>
+        <v>48</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>927</v>
+        <v>49</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>927</v>
+        <v>49</v>
       </c>
       <c r="E392" s="2" t="s">
         <v>238</v>
@@ -15762,29 +15758,29 @@
       <c r="F392" s="2"/>
       <c r="H392" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sska'+:isska'	PSBOUND2 ;</v>
+        <v>PS/sski+:issk	PSBOUND2 ;</v>
       </c>
       <c r="I392" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sska'+:sska'	PSBOUND2 ;</v>
+        <v>PS/sski+:ssk	PSBOUND2 ;</v>
       </c>
       <c r="J392" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sska'+:sska'	PSBOUND2 ;</v>
+        <v>PS/sski+:ssk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>48</v>
+        <v>673</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>49</v>
+        <v>674</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>49</v>
+        <v>674</v>
       </c>
       <c r="E393" s="2" t="s">
         <v>238</v>
@@ -15792,29 +15788,29 @@
       <c r="F393" s="2"/>
       <c r="H393" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sski+:issk	PSBOUND2 ;</v>
+        <v>PS/sskihta+:isskihta	PSBOUND2 ;</v>
       </c>
       <c r="I393" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sski+:ssk	PSBOUND2 ;</v>
+        <v>PS/sskihta+:sskihta	PSBOUND2 ;</v>
       </c>
       <c r="J393" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sski+:ssk	PSBOUND2 ;</v>
+        <v>PS/sskihta+:sskihta	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="E394" s="2" t="s">
         <v>238</v>
@@ -15822,29 +15818,29 @@
       <c r="F394" s="2"/>
       <c r="H394" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sskihta+:isskihta	PSBOUND2 ;</v>
+        <v>PS/sskohto+:isskohto	PSBOUND2 ;</v>
       </c>
       <c r="I394" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sskihta+:sskihta	PSBOUND2 ;</v>
+        <v>PS/sskohto+:sskohto	PSBOUND2 ;</v>
       </c>
       <c r="J394" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sskihta+:sskihta	PSBOUND2 ;</v>
+        <v>PS/sskohto+:sskohto	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E395" s="2" t="s">
         <v>238</v>
@@ -15852,29 +15848,29 @@
       <c r="F395" s="2"/>
       <c r="H395" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sskohto+:isskohto	PSBOUND2 ;</v>
+        <v>PS/sskónat+:isskonat	PSBOUND2 ;</v>
       </c>
       <c r="I395" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sskohto+:sskohto	PSBOUND2 ;</v>
+        <v>PS/sskónat+:sskonat	PSBOUND2 ;</v>
       </c>
       <c r="J395" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sskohto+:sskohto	PSBOUND2 ;</v>
+        <v>PS/sskónat+:sskonat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E396" s="2" t="s">
         <v>238</v>
@@ -15882,29 +15878,29 @@
       <c r="F396" s="2"/>
       <c r="H396" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sskónat+:isskonat	PSBOUND2 ;</v>
+        <v>PS/sso+:isso	PSBOUND2 ;</v>
       </c>
       <c r="I396" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sskónat+:sskonat	PSBOUND2 ;</v>
+        <v>PS/sso+:sso	PSBOUND2 ;</v>
       </c>
       <c r="J396" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sskónat+:sskonat	PSBOUND2 ;</v>
+        <v>PS/sso+:sso	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>669</v>
+        <v>36</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>679</v>
+        <v>37</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>680</v>
+        <v>38</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>680</v>
+        <v>38</v>
       </c>
       <c r="E397" s="2" t="s">
         <v>238</v>
@@ -15912,29 +15908,29 @@
       <c r="F397" s="2"/>
       <c r="H397" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sso+:isso	PSBOUND2 ;</v>
+        <v>PS/ssp+:issp	PSBOUND2 ;</v>
       </c>
       <c r="I397" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/sso+:sso	PSBOUND2 ;</v>
+        <v>PS/ssp+:ssp	PSBOUND2 ;</v>
       </c>
       <c r="J397" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/sso+:sso	PSBOUND2 ;</v>
+        <v>PS/ssp+:ssp	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>36</v>
+        <v>390</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>37</v>
+        <v>391</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="E398" s="2" t="s">
         <v>238</v>
@@ -15942,15 +15938,15 @@
       <c r="F398" s="2"/>
       <c r="H398" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/ssp+:issp	PSBOUND2 ;</v>
+        <v>PS/sspik+:isspik	PSBOUND2 ;</v>
       </c>
       <c r="I398" s="1" t="str">
         <f t="shared" si="45"/>
-        <v>PS/ssp+:ssp	PSBOUND2 ;</v>
+        <v>PS/sspik+:sspik	PSBOUND2 ;</v>
       </c>
       <c r="J398" s="1" t="str">
         <f t="shared" si="46"/>
-        <v>PS/ssp+:ssp	PSBOUND2 ;</v>
+        <v>PS/sspik+:sspik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -15958,13 +15954,7 @@
         <v>390</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D399" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E399" s="2" t="s">
         <v>238</v>
@@ -15972,23 +15962,21 @@
       <c r="F399" s="2"/>
       <c r="H399" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sspik+:isspik	PSBOUND2 ;</v>
-      </c>
-      <c r="I399" s="1" t="str">
-        <f t="shared" si="45"/>
-        <v>PS/sspik+:sspik	PSBOUND2 ;</v>
-      </c>
-      <c r="J399" s="1" t="str">
-        <f t="shared" si="46"/>
-        <v>PS/sspik+:sspik	PSBOUND2 ;</v>
+        <v>PS/sspik+:misspik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>390</v>
+        <v>670</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>393</v>
+        <v>681</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>682</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>238</v>
@@ -15996,21 +15984,29 @@
       <c r="F400" s="2"/>
       <c r="H400" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sspik+:misspik	PSBOUND2 ;</v>
+        <v>PS/sspom+:isspom	PSBOUND2 ;</v>
+      </c>
+      <c r="I400" s="1" t="str">
+        <f>_xlfn.CONCAT(A400,"+:",C400,CHAR(9),E400," ;")</f>
+        <v>PS/sspom+:sspom	PSBOUND2 ;</v>
+      </c>
+      <c r="J400" s="1" t="str">
+        <f>_xlfn.CONCAT(A400,"+:",D400,CHAR(9),E400," ;")</f>
+        <v>PS/sspom+:sspom	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>670</v>
+        <v>1084</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>681</v>
+        <v>1094</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>682</v>
+        <v>1095</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>682</v>
+        <v>1095</v>
       </c>
       <c r="E401" s="2" t="s">
         <v>238</v>
@@ -16018,29 +16014,29 @@
       <c r="F401" s="2"/>
       <c r="H401" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sspom+:isspom	PSBOUND2 ;</v>
+        <v>PS/sstahpik+:isstahpik	PSBOUND2 ;</v>
       </c>
       <c r="I401" s="1" t="str">
         <f>_xlfn.CONCAT(A401,"+:",C401,CHAR(9),E401," ;")</f>
-        <v>PS/sspom+:sspom	PSBOUND2 ;</v>
+        <v>PS/sstahpik+:sstahpik	PSBOUND2 ;</v>
       </c>
       <c r="J401" s="1" t="str">
         <f>_xlfn.CONCAT(A401,"+:",D401,CHAR(9),E401," ;")</f>
-        <v>PS/sspom+:sspom	PSBOUND2 ;</v>
+        <v>PS/sstahpik+:sstahpik	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="E402" s="2" t="s">
         <v>238</v>
@@ -16048,15 +16044,15 @@
       <c r="F402" s="2"/>
       <c r="H402" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstahpik+:isstahpik	PSBOUND2 ;</v>
+        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
       </c>
       <c r="I402" s="1" t="str">
         <f>_xlfn.CONCAT(A402,"+:",C402,CHAR(9),E402," ;")</f>
-        <v>PS/sstahpik+:sstahpik	PSBOUND2 ;</v>
+        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
       </c>
       <c r="J402" s="1" t="str">
         <f>_xlfn.CONCAT(A402,"+:",D402,CHAR(9),E402," ;")</f>
-        <v>PS/sstahpik+:sstahpik	PSBOUND2 ;</v>
+        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -16064,13 +16060,7 @@
         <v>1081</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D403" s="1" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E403" s="2" t="s">
         <v>238</v>
@@ -16078,23 +16068,21 @@
       <c r="F403" s="2"/>
       <c r="H403" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
-      </c>
-      <c r="I403" s="1" t="str">
-        <f>_xlfn.CONCAT(A403,"+:",C403,CHAR(9),E403," ;")</f>
-        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
-      </c>
-      <c r="J403" s="1" t="str">
-        <f>_xlfn.CONCAT(A403,"+:",D403,CHAR(9),E403," ;")</f>
-        <v>PS/sstok+:sstok	PSBOUND2 ;</v>
+        <v>PS/sstok+:isstok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>1090</v>
+        <v>1091</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>1091</v>
       </c>
       <c r="E404" s="2" t="s">
         <v>238</v>
@@ -16102,7 +16090,15 @@
       <c r="F404" s="2"/>
       <c r="H404" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstok+:isstok	PSBOUND2 ;</v>
+        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
+      </c>
+      <c r="I404" s="1" t="str">
+        <f>_xlfn.CONCAT(A404,"+:",C404,CHAR(9),E404," ;")</f>
+        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
+      </c>
+      <c r="J404" s="1" t="str">
+        <f>_xlfn.CONCAT(A404,"+:",D404,CHAR(9),E404," ;")</f>
+        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -16110,13 +16106,7 @@
         <v>1082</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D405" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E405" s="2" t="s">
         <v>238</v>
@@ -16124,23 +16114,21 @@
       <c r="F405" s="2"/>
       <c r="H405" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
-      </c>
-      <c r="I405" s="1" t="str">
-        <f>_xlfn.CONCAT(A405,"+:",C405,CHAR(9),E405," ;")</f>
-        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
-      </c>
-      <c r="J405" s="1" t="str">
-        <f>_xlfn.CONCAT(A405,"+:",D405,CHAR(9),E405," ;")</f>
-        <v>PS/sstónnat+:sstónnat	PSBOUND2 ;</v>
+        <v>PS/sstónnat+:isstónnat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>1082</v>
+        <v>128</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1092</v>
+        <v>129</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E406" s="2" t="s">
         <v>238</v>
@@ -16148,7 +16136,15 @@
       <c r="F406" s="2"/>
       <c r="H406" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstónnat+:isstónnat	PSBOUND2 ;</v>
+        <v>PS/sstsaap+:isstsaap	PSBOUND2 ;</v>
+      </c>
+      <c r="I406" s="1" t="str">
+        <f t="shared" ref="I406:I445" si="47">_xlfn.CONCAT(A406,"+:",C406,CHAR(9),E406," ;")</f>
+        <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
+      </c>
+      <c r="J406" s="1" t="str">
+        <f t="shared" ref="J406:J445" si="48">_xlfn.CONCAT(A406,"+:",D406,CHAR(9),E406," ;")</f>
+        <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
@@ -16168,50 +16164,50 @@
         <v>238</v>
       </c>
       <c r="F407" s="2"/>
+      <c r="G407" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H407" s="1" t="str">
         <f t="shared" si="44"/>
         <v>PS/sstsaap+:isstsaap	PSBOUND2 ;</v>
       </c>
       <c r="I407" s="1" t="str">
-        <f t="shared" ref="I407:I446" si="47">_xlfn.CONCAT(A407,"+:",C407,CHAR(9),E407," ;")</f>
+        <f t="shared" si="47"/>
         <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
       </c>
       <c r="J407" s="1" t="str">
-        <f t="shared" ref="J407:J446" si="48">_xlfn.CONCAT(A407,"+:",D407,CHAR(9),E407," ;")</f>
+        <f t="shared" si="48"/>
         <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="E408" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F408" s="2"/>
-      <c r="G408" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H408" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstsaap+:isstsaap	PSBOUND2 ;</v>
+        <v>PS/sstsim+:isstsim	PSBOUND2 ;</v>
       </c>
       <c r="I408" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
+        <v>PS/sstsim+:sstsim	PSBOUND2 ;</v>
       </c>
       <c r="J408" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/sstsaap+:sstsaap	PSBOUND2 ;</v>
+        <v>PS/sstsim+:sstsim	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -16246,16 +16242,16 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>238</v>
@@ -16263,29 +16259,29 @@
       <c r="F410" s="2"/>
       <c r="H410" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstsim+:isstsim	PSBOUND2 ;</v>
+        <v>PS/sstsina'+:isstsina'	PSBOUND2 ;</v>
       </c>
       <c r="I410" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/sstsim+:sstsim	PSBOUND2 ;</v>
+        <v>PS/sstsina'+:sstsina'	PSBOUND2 ;</v>
       </c>
       <c r="J410" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/sstsim+:sstsim	PSBOUND2 ;</v>
+        <v>PS/sstsina'+:sstsina'	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E411" s="2" t="s">
         <v>238</v>
@@ -16293,29 +16289,29 @@
       <c r="F411" s="2"/>
       <c r="H411" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/sstsina'+:isstsina'	PSBOUND2 ;</v>
+        <v>PS/stam+:stam	PSBOUND2 ;</v>
       </c>
       <c r="I411" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/sstsina'+:sstsina'	PSBOUND2 ;</v>
+        <v>PS/stam+:stam	PSBOUND2 ;</v>
       </c>
       <c r="J411" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/sstsina'+:sstsina'	PSBOUND2 ;</v>
+        <v>PS/stam+:stam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>53</v>
+        <v>1099</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>54</v>
+        <v>1111</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>54</v>
+        <v>1111</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>54</v>
+        <v>1111</v>
       </c>
       <c r="E412" s="2" t="s">
         <v>238</v>
@@ -16323,287 +16319,290 @@
       <c r="F412" s="2"/>
       <c r="H412" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/stam+:stam	PSBOUND2 ;</v>
+        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
       </c>
       <c r="I412" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/stam+:stam	PSBOUND2 ;</v>
+        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
       </c>
       <c r="J412" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/stam+:stam	PSBOUND2 ;</v>
+        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>1099</v>
+        <v>685</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>1111</v>
+        <v>690</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1111</v>
+        <v>690</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>1111</v>
+        <v>701</v>
       </c>
       <c r="E413" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F413" s="2"/>
+      <c r="G413" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="H413" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
+        <v>PS/waahkiááp+:waahkiááp	PSBOUND2 ;</v>
       </c>
       <c r="I413" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
+        <v>PS/waahkiááp+:waahkiááp	PSBOUND2 ;</v>
       </c>
       <c r="J413" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahki+:waahki	PSBOUND2 ;</v>
+        <v>PS/waahkiááp+:wahkiááp	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>685</v>
+        <v>1112</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>690</v>
+        <v>1113</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>690</v>
+        <v>1113</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>701</v>
+        <v>1113</v>
       </c>
       <c r="E414" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F414" s="2"/>
-      <c r="G414" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H414" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahkiááp+:waahkiááp	PSBOUND2 ;</v>
+        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
       </c>
       <c r="I414" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahkiááp+:waahkiááp	PSBOUND2 ;</v>
+        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
       </c>
       <c r="J414" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahkiááp+:wahkiááp	PSBOUND2 ;</v>
+        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E415" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F415" s="2"/>
+      <c r="G415" s="1" t="s">
+        <v>458</v>
+      </c>
       <c r="H415" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
+        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
       </c>
       <c r="I415" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
+        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
       </c>
       <c r="J415" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahko(w/y)+:waahkoG	PSBOUND2 ;</v>
+        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>1114</v>
+        <v>1100</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="H416" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
+        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
       </c>
       <c r="I416" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
+        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
       </c>
       <c r="J416" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahto(w/y)+:waahtoG	PSBOUND2 ;</v>
+        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E417" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>260</v>
+        <v>1118</v>
       </c>
       <c r="H417" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
+        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
       </c>
       <c r="I417" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
+        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
       </c>
       <c r="J417" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahtsam+:waahtsam	PSBOUND2 ;</v>
+        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>1101</v>
+        <v>241</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>1117</v>
+        <v>242</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1117</v>
+        <v>242</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>1117</v>
+        <v>242</v>
       </c>
       <c r="E418" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="1" t="s">
-        <v>1118</v>
+        <v>243</v>
       </c>
       <c r="H418" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
+        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
       </c>
       <c r="I418" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
+        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
       </c>
       <c r="J418" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waahtso+:waahtso	PSBOUND2 ;</v>
+        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>241</v>
+        <v>1119</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>242</v>
+        <v>1125</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>242</v>
+        <v>1125</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>242</v>
+        <v>1125</v>
       </c>
       <c r="E419" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="1" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="H419" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
+        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
       </c>
       <c r="I419" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
+        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
       </c>
       <c r="J419" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waaká+:waaká	PSBOUND2 ;</v>
+        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="H420" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
+        <v>PS/waaksisto+:waaksisto	PSBOUND2 ;</v>
       </c>
       <c r="I420" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
+        <v>PS/waaksisto+:waaksisto	PSBOUND2 ;</v>
       </c>
       <c r="J420" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waako'tsi+:waako'tsi	PSBOUND2 ;</v>
+        <v>PS/waaksisto+:waksisto	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>1120</v>
+        <v>687</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1126</v>
+        <v>692</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1126</v>
+        <v>709</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>1127</v>
+        <v>692</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>238</v>
@@ -16614,29 +16613,29 @@
       </c>
       <c r="H421" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waaksisto+:waaksisto	PSBOUND2 ;</v>
+        <v>PS/waamis+:waamis	PSBOUND2 ;</v>
       </c>
       <c r="I421" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waaksisto+:waaksisto	PSBOUND2 ;</v>
+        <v>PS/waamis+:wamis	PSBOUND2 ;</v>
       </c>
       <c r="J421" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waaksisto+:waksisto	PSBOUND2 ;</v>
+        <v>PS/waamis+:waamis	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>238</v>
@@ -16647,29 +16646,29 @@
       </c>
       <c r="H422" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waamis+:waamis	PSBOUND2 ;</v>
+        <v>PS/waami't+:waami't	PSBOUND2 ;</v>
       </c>
       <c r="I422" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waamis+:wamis	PSBOUND2 ;</v>
+        <v>PS/waami't+:waami't	PSBOUND2 ;</v>
       </c>
       <c r="J422" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waamis+:waamis	PSBOUND2 ;</v>
+        <v>PS/waami't+:wami't	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>238</v>
@@ -16680,128 +16679,128 @@
       </c>
       <c r="H423" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waami't+:waami't	PSBOUND2 ;</v>
+        <v>PS/waamohs+:waamohs	PSBOUND2 ;</v>
       </c>
       <c r="I423" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waami't+:waami't	PSBOUND2 ;</v>
+        <v>PS/waamohs+:wamohs	PSBOUND2 ;</v>
       </c>
       <c r="J423" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waami't+:wami't	PSBOUND2 ;</v>
+        <v>PS/waamohs+:wamohs	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>693</v>
+        <v>244</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>699</v>
+        <v>245</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>702</v>
+        <v>245</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>702</v>
+        <v>245</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="1" t="s">
-        <v>458</v>
+        <v>243</v>
       </c>
       <c r="H424" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waamohs+:waamohs	PSBOUND2 ;</v>
+        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
       </c>
       <c r="I424" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waamohs+:wamohs	PSBOUND2 ;</v>
+        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
       </c>
       <c r="J424" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waamohs+:wamohs	PSBOUND2 ;</v>
+        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E425" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="1" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H425" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
+        <v>PS/waanao'k+:waanao'k	PSBOUND2 ;</v>
       </c>
       <c r="I425" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
+        <v>PS/waanao'k+:wanao'k	PSBOUND2 ;</v>
       </c>
       <c r="J425" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waamsskááp+:waamsskááp	PSBOUND2 ;</v>
+        <v>PS/waanao'k+:wanao'k	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>257</v>
+        <v>1129</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>258</v>
+        <v>1130</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>259</v>
+        <v>1130</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>259</v>
+        <v>1128</v>
       </c>
       <c r="E426" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="1" t="s">
-        <v>260</v>
+        <v>458</v>
       </c>
       <c r="H426" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waanao'k+:waanao'k	PSBOUND2 ;</v>
+        <v>PS/waanaoyit+:waanaoyit	PSBOUND2 ;</v>
       </c>
       <c r="I426" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waanao'k+:wanao'k	PSBOUND2 ;</v>
+        <v>PS/waanaoyit+:waanaoyit	PSBOUND2 ;</v>
       </c>
       <c r="J426" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waanao'k+:wanao'k	PSBOUND2 ;</v>
+        <v>PS/waanaoyit+:wanaoyit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>1129</v>
+        <v>694</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>1130</v>
+        <v>703</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1130</v>
+        <v>703</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>1128</v>
+        <v>704</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>238</v>
@@ -16812,29 +16811,29 @@
       </c>
       <c r="H427" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waanaoyit+:waanaoyit	PSBOUND2 ;</v>
+        <v>PS/waanat+:waanat	PSBOUND2 ;</v>
       </c>
       <c r="I427" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waanaoyit+:waanaoyit	PSBOUND2 ;</v>
+        <v>PS/waanat+:waanat	PSBOUND2 ;</v>
       </c>
       <c r="J427" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waanaoyit+:wanaoyit	PSBOUND2 ;</v>
+        <v>PS/waanat+:wanat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E428" s="2" t="s">
         <v>238</v>
@@ -16845,29 +16844,29 @@
       </c>
       <c r="H428" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waanat+:waanat	PSBOUND2 ;</v>
+        <v>PS/waaniit+:waaniit	PSBOUND2 ;</v>
       </c>
       <c r="I428" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waanat+:waanat	PSBOUND2 ;</v>
+        <v>PS/waaniit+:waaniit	PSBOUND2 ;</v>
       </c>
       <c r="J428" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waanat+:wanat	PSBOUND2 ;</v>
+        <v>PS/waaniit+:waniit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>695</v>
+        <v>1121</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>705</v>
+        <v>1131</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>705</v>
+        <v>1131</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>706</v>
+        <v>1132</v>
       </c>
       <c r="E429" s="2" t="s">
         <v>238</v>
@@ -16878,125 +16877,125 @@
       </c>
       <c r="H429" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waaniit+:waaniit	PSBOUND2 ;</v>
+        <v>PS/waanook+:waanook	PSBOUND2 ;</v>
       </c>
       <c r="I429" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waaniit+:waaniit	PSBOUND2 ;</v>
+        <v>PS/waanook+:waanook	PSBOUND2 ;</v>
       </c>
       <c r="J429" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waaniit+:waniit	PSBOUND2 ;</v>
+        <v>PS/waanook+:wanook	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>1121</v>
+        <v>246</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>1131</v>
+        <v>247</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1131</v>
+        <v>247</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>1132</v>
+        <v>248</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F430" s="2"/>
-      <c r="G430" s="1" t="s">
-        <v>458</v>
-      </c>
       <c r="H430" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waanook+:waanook	PSBOUND2 ;</v>
+        <v>PS/waapat+:waapat	PSBOUND2 ;</v>
       </c>
       <c r="I430" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waanook+:waanook	PSBOUND2 ;</v>
+        <v>PS/waapat+:waapat	PSBOUND2 ;</v>
       </c>
       <c r="J430" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waanook+:wanook	PSBOUND2 ;</v>
+        <v>PS/waapat+:wapat	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>246</v>
+        <v>696</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>247</v>
+        <v>707</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>247</v>
+        <v>707</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>248</v>
+        <v>708</v>
       </c>
       <c r="E431" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F431" s="2"/>
+      <c r="G431" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="H431" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waapat+:waapat	PSBOUND2 ;</v>
+        <v>PS/waapatohs+:waapatohs	PSBOUND2 ;</v>
       </c>
       <c r="I431" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waapat+:waapat	PSBOUND2 ;</v>
+        <v>PS/waapatohs+:waapatohs	PSBOUND2 ;</v>
       </c>
       <c r="J431" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waapat+:wapat	PSBOUND2 ;</v>
+        <v>PS/waapatohs+:wapatohs	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>696</v>
+        <v>1122</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>707</v>
+        <v>1133</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>707</v>
+        <v>1133</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>708</v>
+        <v>1134</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="H432" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waapatohs+:waapatohs	PSBOUND2 ;</v>
+        <v>PS/waapiiwaan+:waapiiwaan	PSBOUND2 ;</v>
       </c>
       <c r="I432" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waapatohs+:waapatohs	PSBOUND2 ;</v>
+        <v>PS/waapiiwaan+:waapiiwaan	PSBOUND2 ;</v>
       </c>
       <c r="J432" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waapatohs+:wapatohs	PSBOUND2 ;</v>
+        <v>PS/waapiiwaan+:wapiiwaan	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>1122</v>
+        <v>697</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>1133</v>
+        <v>712</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1133</v>
+        <v>712</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>1134</v>
+        <v>713</v>
       </c>
       <c r="E433" s="2" t="s">
         <v>238</v>
@@ -17007,95 +17006,95 @@
       </c>
       <c r="H433" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waapiiwaan+:waapiiwaan	PSBOUND2 ;</v>
+        <v>PS/waapo'k+:waapo'k	PSBOUND2 ;</v>
       </c>
       <c r="I433" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waapiiwaan+:waapiiwaan	PSBOUND2 ;</v>
+        <v>PS/waapo'k+:waapo'k	PSBOUND2 ;</v>
       </c>
       <c r="J433" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waapiiwaan+:wapiiwaan	PSBOUND2 ;</v>
+        <v>PS/waapo'k+:wapo'k	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>697</v>
+        <v>465</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>712</v>
+        <v>466</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>712</v>
+        <v>466</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>713</v>
+        <v>466</v>
       </c>
       <c r="E434" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="1" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="H434" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waapo'k+:waapo'k	PSBOUND2 ;</v>
+        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
       </c>
       <c r="I434" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waapo'k+:waapo'k	PSBOUND2 ;</v>
+        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
       </c>
       <c r="J434" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waapo'k+:wapo'k	PSBOUND2 ;</v>
+        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>465</v>
+        <v>698</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>466</v>
+        <v>714</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>466</v>
+        <v>714</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>466</v>
+        <v>715</v>
       </c>
       <c r="E435" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="H435" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
+        <v>PS/waawatt+:waawatt	PSBOUND2 ;</v>
       </c>
       <c r="I435" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
+        <v>PS/waawatt+:waawatt	PSBOUND2 ;</v>
       </c>
       <c r="J435" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waattsi+:waattsi	PSBOUND2 ;</v>
+        <v>PS/waawatt+:wawatt	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>698</v>
+        <v>722</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="E436" s="2" t="s">
         <v>238</v>
@@ -17106,155 +17105,152 @@
       </c>
       <c r="H436" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waawatt+:waawatt	PSBOUND2 ;</v>
+        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
       </c>
       <c r="I436" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waawatt+:waawatt	PSBOUND2 ;</v>
+        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
       </c>
       <c r="J436" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waawatt+:wawatt	PSBOUND2 ;</v>
+        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>722</v>
+        <v>683</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>723</v>
+        <v>688</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>458</v>
+        <v>260</v>
       </c>
       <c r="H437" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
+        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
       </c>
       <c r="I437" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
+        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
       </c>
       <c r="J437" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/waawo(w/y)+:waawoG	PSBOUND2 ;</v>
+        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F438" s="2"/>
-      <c r="G438" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H438" s="1" t="str">
         <f t="shared" si="44"/>
-        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
+        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
       </c>
       <c r="I438" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
+        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
       </c>
       <c r="J438" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/wa'kot+:wa'kot	PSBOUND2 ;</v>
+        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>684</v>
+        <v>1135</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>689</v>
+        <v>1136</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>689</v>
+        <v>1136</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>689</v>
+        <v>1136</v>
       </c>
       <c r="E439" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F439" s="2"/>
       <c r="H439" s="1" t="str">
-        <f t="shared" si="44"/>
-        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
+        <f t="shared" ref="H439:H452" si="49">_xlfn.CONCAT(A439,"+:",B439,CHAR(9),E439," ;")</f>
+        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
       </c>
       <c r="I439" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
+        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
       </c>
       <c r="J439" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/wa'sok+:wa'sok	PSBOUND2 ;</v>
+        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F440" s="2"/>
       <c r="H440" s="1" t="str">
-        <f t="shared" ref="H440:H453" si="49">_xlfn.CONCAT(A440,"+:",B440,CHAR(9),E440," ;")</f>
-        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
+        <f t="shared" si="49"/>
+        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
       </c>
       <c r="I440" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
+        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
       </c>
       <c r="J440" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/wáyák+:wáyák	PSBOUND2 ;</v>
+        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>1123</v>
+        <v>716</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>1137</v>
+        <v>724</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1137</v>
+        <v>724</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>1137</v>
+        <v>724</v>
       </c>
       <c r="E441" s="2" t="s">
         <v>238</v>
@@ -17262,138 +17258,138 @@
       <c r="F441" s="2"/>
       <c r="H441" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
+        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
       </c>
       <c r="I441" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
+        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
       </c>
       <c r="J441" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/wayákiit+:wayákiit	PSBOUND2 ;</v>
+        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>716</v>
+        <v>8</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>724</v>
+        <v>213</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>724</v>
+        <v>213</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>724</v>
+        <v>213</v>
       </c>
       <c r="E442" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F442" s="2"/>
+      <c r="G442" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="H442" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
+        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
       </c>
       <c r="I442" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
+        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
       </c>
       <c r="J442" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/wayam+:wayam	PSBOUND2 ;</v>
+        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>8</v>
+        <v>486</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>213</v>
+        <v>487</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>213</v>
+        <v>488</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>213</v>
+        <v>488</v>
       </c>
       <c r="E443" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>234</v>
+        <v>458</v>
       </c>
       <c r="H443" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
+        <v>PS/yaam+:naam	PSBOUND2 ;</v>
       </c>
       <c r="I443" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
+        <v>PS/yaam+:yaam	PSBOUND2 ;</v>
       </c>
       <c r="J443" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/yaahs+:yaahs	PSBOUND2 ;</v>
+        <v>PS/yaam+:yaam	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C444" s="1" t="s">
-        <v>488</v>
+        <v>965</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>488</v>
+        <v>969</v>
       </c>
       <c r="E444" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>458</v>
+        <v>1003</v>
       </c>
       <c r="H444" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yaam+:naam	PSBOUND2 ;</v>
+        <v>PS/yámoohk+:	PSBOUND2 ;</v>
       </c>
       <c r="I444" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/yaam+:yaam	PSBOUND2 ;</v>
+        <v>PS/yámoohk+:	PSBOUND2 ;</v>
       </c>
       <c r="J444" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/yaam+:yaam	PSBOUND2 ;</v>
+        <v>PS/yámoohk+:y2ámoohk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>965</v>
+        <v>384</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>969</v>
+        <v>385</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F445" s="2"/>
-      <c r="G445" s="1" t="s">
-        <v>1003</v>
-      </c>
       <c r="H445" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yámoohk+:	PSBOUND2 ;</v>
+        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
       </c>
       <c r="I445" s="1" t="str">
         <f t="shared" si="47"/>
-        <v>PS/yámoohk+:	PSBOUND2 ;</v>
+        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
       </c>
       <c r="J445" s="1" t="str">
         <f t="shared" si="48"/>
-        <v>PS/yámoohk+:y2ámoohk	PSBOUND2 ;</v>
+        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -17401,13 +17397,7 @@
         <v>384</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C446" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E446" s="2" t="s">
         <v>238</v>
@@ -17415,23 +17405,21 @@
       <c r="F446" s="2"/>
       <c r="H446" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
-      </c>
-      <c r="I446" s="1" t="str">
-        <f t="shared" si="47"/>
-        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
-      </c>
-      <c r="J446" s="1" t="str">
-        <f t="shared" si="48"/>
-        <v>PS/yiss+:yi2ss	PSBOUND2 ;</v>
+        <v>PS/yiss+:iyiss	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>384</v>
+        <v>717</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>386</v>
+        <v>725</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>725</v>
       </c>
       <c r="E447" s="2" t="s">
         <v>238</v>
@@ -17439,51 +17427,62 @@
       <c r="F447" s="2"/>
       <c r="H447" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yiss+:iyiss	PSBOUND2 ;</v>
+        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
+      </c>
+      <c r="I447" s="1" t="str">
+        <f>_xlfn.CONCAT(A447,"+:",C447,CHAR(9),E447," ;")</f>
+        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
+      </c>
+      <c r="J447" s="1" t="str">
+        <f>_xlfn.CONCAT(A447,"+:",D447,CHAR(9),E447," ;")</f>
+        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>717</v>
+        <v>1124</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>725</v>
+        <v>1138</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>725</v>
+        <v>1138</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>725</v>
+        <v>1138</v>
       </c>
       <c r="E448" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F448" s="2"/>
+      <c r="G448" s="1" t="s">
+        <v>260</v>
+      </c>
       <c r="H448" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
+        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
       </c>
       <c r="I448" s="1" t="str">
         <f>_xlfn.CONCAT(A448,"+:",C448,CHAR(9),E448," ;")</f>
-        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
+        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
       </c>
       <c r="J448" s="1" t="str">
         <f>_xlfn.CONCAT(A448,"+:",D448,CHAR(9),E448," ;")</f>
-        <v>PS/yissk+:yissk	PSBOUND2 ;</v>
+        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>1124</v>
+        <v>718</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1138</v>
+        <v>726</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1138</v>
+        <v>726</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>1138</v>
+        <v>726</v>
       </c>
       <c r="E449" s="2" t="s">
         <v>238</v>
@@ -17494,29 +17493,29 @@
       </c>
       <c r="H449" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
+        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
       </c>
       <c r="I449" s="1" t="str">
         <f>_xlfn.CONCAT(A449,"+:",C449,CHAR(9),E449," ;")</f>
-        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
+        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
       </c>
       <c r="J449" s="1" t="str">
         <f>_xlfn.CONCAT(A449,"+:",D449,CHAR(9),E449," ;")</f>
-        <v>PS/yoisstsikina+:yoisstsikina	PSBOUND2 ;</v>
+        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>718</v>
+        <v>1139</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>726</v>
+        <v>1148</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>726</v>
+        <v>1148</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>726</v>
+        <v>1148</v>
       </c>
       <c r="E450" s="2" t="s">
         <v>238</v>
@@ -17527,48 +17526,45 @@
       </c>
       <c r="H450" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
+        <v>PS/yook+:yook	PSBOUND2 ;</v>
       </c>
       <c r="I450" s="1" t="str">
         <f>_xlfn.CONCAT(A450,"+:",C450,CHAR(9),E450," ;")</f>
-        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
+        <v>PS/yook+:yook	PSBOUND2 ;</v>
       </c>
       <c r="J450" s="1" t="str">
         <f>_xlfn.CONCAT(A450,"+:",D450,CHAR(9),E450," ;")</f>
-        <v>PS/yoohk+:yoohk	PSBOUND2 ;</v>
+        <v>PS/yook+:yook	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>1139</v>
+        <v>719</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>1148</v>
+        <v>727</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1148</v>
+        <v>727</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>1148</v>
+        <v>727</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>238</v>
       </c>
       <c r="F451" s="2"/>
-      <c r="G451" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="H451" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yook+:yook	PSBOUND2 ;</v>
+        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
       </c>
       <c r="I451" s="1" t="str">
         <f>_xlfn.CONCAT(A451,"+:",C451,CHAR(9),E451," ;")</f>
-        <v>PS/yook+:yook	PSBOUND2 ;</v>
+        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
       </c>
       <c r="J451" s="1" t="str">
         <f>_xlfn.CONCAT(A451,"+:",D451,CHAR(9),E451," ;")</f>
-        <v>PS/yook+:yook	PSBOUND2 ;</v>
+        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
       </c>
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
@@ -17576,13 +17572,7 @@
         <v>719</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="D452" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E452" s="2" t="s">
         <v>238</v>
@@ -17590,36 +17580,12 @@
       <c r="F452" s="2"/>
       <c r="H452" s="1" t="str">
         <f t="shared" si="49"/>
-        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
-      </c>
-      <c r="I452" s="1" t="str">
-        <f>_xlfn.CONCAT(A452,"+:",C452,CHAR(9),E452," ;")</f>
-        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
-      </c>
-      <c r="J452" s="1" t="str">
-        <f>_xlfn.CONCAT(A452,"+:",D452,CHAR(9),E452," ;")</f>
-        <v>PS/yootsip+:yootsip	PSBOUND2 ;</v>
-      </c>
-    </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B453" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E453" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F453" s="2"/>
-      <c r="H453" s="1" t="str">
-        <f t="shared" si="49"/>
         <v>PS/yootsip+:iyootsip	PSBOUND2 ;</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J453">
-    <sortCondition ref="A2:A453"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J452">
+    <sortCondition ref="A2:A452"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17904,7 +17870,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="str">
-        <f>_xlfn.CONCAT('general prestems'!A451,"+:",'general prestems'!B451,CHAR(9),"TENSE_PREFIXES ;")</f>
+        <f>_xlfn.CONCAT('general prestems'!A450,"+:",'general prestems'!B450,CHAR(9),"TENSE_PREFIXES ;")</f>
         <v>PS/yook+:yook	TENSE_PREFIXES ;</v>
       </c>
       <c r="H12" s="1"/>
